--- a/Data & Analysis/ETS_Corpus_of_Non-Native_Written_English/Germanic/Analysis/TOEFL_Germanic_cognate_counts_lemmas_pos.xlsx
+++ b/Data & Analysis/ETS_Corpus_of_Non-Native_Written_English/Germanic/Analysis/TOEFL_Germanic_cognate_counts_lemmas_pos.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Liat\Research\Repo\Cognates\Data\English\ETS_Corpus_of_Non-Native_Written_English\CognateCount\Germanic\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C0AB7-600E-4D44-A84C-49CBA7F47FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F77364-DE87-43D3-80C6-73E119CF9F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOEFL_Germanic_cognate_counts_l" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1388,10 +1390,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1465,8 +1467,9 @@
           <c:h val="0.76554089813751325"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1495,44 +1498,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1542,23 +1521,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1568,19 +1531,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1590,21 +1541,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1614,19 +1551,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1634,8 +1559,170 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.6636629281805283"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D766-4874-8066-0BC0B49FE00F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.196122374163877E-3"/>
+                  <c:y val="0.56902208184131697"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D766-4874-8066-0BC0B49FE00F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0523556837677031E-17"/>
+                  <c:y val="0.51791573767538235"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D766-4874-8066-0BC0B49FE00F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1961223741638366E-3"/>
+                  <c:y val="0.29481538409566921"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D766-4874-8066-0BC0B49FE00F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.32324983672274393"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D766-4874-8066-0BC0B49FE00F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
-            <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
@@ -1646,19 +1733,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.8999999999999997E-2</c:v>
+                    <c:v>6.4000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.2999999999999999E-2</c:v>
+                    <c:v>6.4000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8000000000000001E-2</c:v>
+                    <c:v>6.3E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5999999999999999E-2</c:v>
+                    <c:v>6.9000000000000006E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.2000000000000003E-2</c:v>
+                    <c:v>6.2E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1670,19 +1757,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.8617870210439189E-2</c:v>
+                    <c:v>6.4406118871952994E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3486198474669636E-2</c:v>
+                    <c:v>6.3814737127854057E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8124422960594368E-2</c:v>
+                    <c:v>6.311397273589664E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.6083506712083035E-2</c:v>
+                    <c:v>6.8870424089241239E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.1987062841110943E-2</c:v>
+                    <c:v>6.1954818665017355E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1701,7 +1788,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>TOEFL_Germanic_cognate_counts_l!$B$19:$B$23</c:f>
               <c:strCache>
@@ -1723,32 +1810,31 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>TOEFL_Germanic_cognate_counts_l!$D$19:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.82599999999999996</c:v>
+                  <c:v>0.92400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78200000000000003</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77700000000000002</c:v>
+                  <c:v>0.85899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73</c:v>
+                  <c:v>0.75700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71699999999999997</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2F8-407C-B837-B757502BF481}"/>
@@ -1763,37 +1849,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1510043376"/>
         <c:axId val="1510040048"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="1510043376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1510040048"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1510040048"/>
         <c:scaling>
@@ -1803,20 +1880,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1910,45 +1973,22 @@
         </c:txPr>
         <c:crossAx val="1510043376"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2001,41 +2041,28 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2560,16 +2587,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>136500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>31800</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2896,9 +2923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ID39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7902,7 +7929,7 @@
     </row>
     <row r="8" spans="1:237" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <f>IF(AND(B2+B5&gt;=$A$8,B3+B6&gt;=$A$8,B4+B7&gt;=$A$8, OR(B2&gt;0,B4&gt;0,B6&gt;0),OR(B3&gt;0,B5&gt;0,B7&gt;0)),1,0)</f>
@@ -7942,7 +7969,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
@@ -8026,11 +8053,11 @@
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" si="1"/>
@@ -8066,7 +8093,7 @@
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="1"/>
@@ -8086,15 +8113,15 @@
       </c>
       <c r="AU8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1">
         <f t="shared" si="1"/>
@@ -8118,7 +8145,7 @@
       </c>
       <c r="BC8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <f t="shared" si="1"/>
@@ -8126,7 +8153,7 @@
       </c>
       <c r="BE8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="1">
         <f t="shared" si="1"/>
@@ -8158,7 +8185,7 @@
       </c>
       <c r="BM8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <f t="shared" si="1"/>
@@ -8218,7 +8245,7 @@
       </c>
       <c r="CB8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <f t="shared" si="2"/>
@@ -8234,11 +8261,11 @@
       </c>
       <c r="CF8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8" s="1">
         <f t="shared" si="2"/>
@@ -8250,7 +8277,7 @@
       </c>
       <c r="CJ8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK8" s="1">
         <f t="shared" si="2"/>
@@ -8258,7 +8285,7 @@
       </c>
       <c r="CL8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM8" s="1">
         <f t="shared" si="2"/>
@@ -8346,7 +8373,7 @@
       </c>
       <c r="DH8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI8" s="1">
         <f t="shared" si="2"/>
@@ -8358,7 +8385,7 @@
       </c>
       <c r="DK8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL8" s="1">
         <f t="shared" si="2"/>
@@ -8382,7 +8409,7 @@
       </c>
       <c r="DQ8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR8" s="1">
         <f t="shared" si="2"/>
@@ -8466,11 +8493,11 @@
       </c>
       <c r="EL8" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM8" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN8" s="1">
         <f t="shared" si="3"/>
@@ -8482,7 +8509,7 @@
       </c>
       <c r="EP8" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ8" s="1">
         <f t="shared" si="3"/>
@@ -8614,7 +8641,7 @@
       </c>
       <c r="FW8" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX8" s="1">
         <f t="shared" si="3"/>
@@ -8686,7 +8713,7 @@
       </c>
       <c r="GO8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GP8" s="1">
         <f t="shared" si="4"/>
@@ -8742,7 +8769,7 @@
       </c>
       <c r="HC8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD8" s="1">
         <f t="shared" si="4"/>
@@ -8830,7 +8857,7 @@
       </c>
       <c r="HY8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ8" s="1">
         <f t="shared" si="4"/>
@@ -8838,7 +8865,7 @@
       </c>
       <c r="IA8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB8" s="1">
         <f t="shared" si="4"/>
@@ -8884,7 +8911,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
@@ -8968,11 +8995,11 @@
       </c>
       <c r="AF9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <f t="shared" si="5"/>
@@ -9008,7 +9035,7 @@
       </c>
       <c r="AP9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="5"/>
@@ -9032,11 +9059,11 @@
       </c>
       <c r="AV9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9">
         <f t="shared" si="5"/>
@@ -9060,7 +9087,7 @@
       </c>
       <c r="BC9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <f t="shared" si="5"/>
@@ -9100,7 +9127,7 @@
       </c>
       <c r="BM9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9">
         <f t="shared" si="5"/>
@@ -9160,7 +9187,7 @@
       </c>
       <c r="CB9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9">
         <f t="shared" si="6"/>
@@ -9176,11 +9203,11 @@
       </c>
       <c r="CF9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG9">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH9">
         <f t="shared" si="6"/>
@@ -9192,7 +9219,7 @@
       </c>
       <c r="CJ9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK9">
         <f t="shared" si="6"/>
@@ -9200,7 +9227,7 @@
       </c>
       <c r="CL9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM9">
         <f t="shared" si="6"/>
@@ -9324,7 +9351,7 @@
       </c>
       <c r="DQ9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR9">
         <f t="shared" si="6"/>
@@ -9408,7 +9435,7 @@
       </c>
       <c r="EL9">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EM9">
         <f t="shared" si="7"/>
@@ -9424,7 +9451,7 @@
       </c>
       <c r="EP9">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ9">
         <f t="shared" si="7"/>
@@ -9628,7 +9655,7 @@
       </c>
       <c r="GO9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GP9">
         <f t="shared" si="8"/>
@@ -9684,7 +9711,7 @@
       </c>
       <c r="HC9">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HD9">
         <f t="shared" si="8"/>
@@ -9772,7 +9799,7 @@
       </c>
       <c r="HY9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ9">
         <f t="shared" si="8"/>
@@ -9780,7 +9807,7 @@
       </c>
       <c r="IA9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB9">
         <f t="shared" si="8"/>
@@ -9788,7 +9815,7 @@
       </c>
       <c r="IC9">
         <f t="shared" ref="IC9:IC14" si="9">SUM(B9:IB9)</f>
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:237" x14ac:dyDescent="0.3">
@@ -9830,7 +9857,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="10"/>
@@ -9914,11 +9941,11 @@
       </c>
       <c r="AF10">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <f t="shared" si="5"/>
@@ -9954,7 +9981,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="5"/>
@@ -9974,15 +10001,15 @@
       </c>
       <c r="AU10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV10">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AW10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <f t="shared" si="5"/>
@@ -10006,7 +10033,7 @@
       </c>
       <c r="BC10">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BD10">
         <f t="shared" si="5"/>
@@ -10014,7 +10041,7 @@
       </c>
       <c r="BE10">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="BF10">
         <f t="shared" si="5"/>
@@ -10046,7 +10073,7 @@
       </c>
       <c r="BM10">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BN10">
         <f t="shared" si="5"/>
@@ -10106,7 +10133,7 @@
       </c>
       <c r="CB10">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="CC10">
         <f t="shared" si="6"/>
@@ -10122,11 +10149,11 @@
       </c>
       <c r="CF10">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="CG10">
         <f t="shared" si="6"/>
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="CH10">
         <f t="shared" si="6"/>
@@ -10138,7 +10165,7 @@
       </c>
       <c r="CJ10">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CK10">
         <f t="shared" si="6"/>
@@ -10146,7 +10173,7 @@
       </c>
       <c r="CL10">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="CM10">
         <f t="shared" si="6"/>
@@ -10270,7 +10297,7 @@
       </c>
       <c r="DQ10">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="DR10">
         <f t="shared" si="6"/>
@@ -10354,7 +10381,7 @@
       </c>
       <c r="EL10">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="EM10">
         <f t="shared" si="7"/>
@@ -10370,7 +10397,7 @@
       </c>
       <c r="EP10">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="EQ10">
         <f t="shared" si="7"/>
@@ -10574,7 +10601,7 @@
       </c>
       <c r="GO10">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="GP10">
         <f t="shared" si="8"/>
@@ -10630,7 +10657,7 @@
       </c>
       <c r="HC10">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="HD10">
         <f t="shared" si="8"/>
@@ -10718,7 +10745,7 @@
       </c>
       <c r="HY10">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="HZ10">
         <f t="shared" si="8"/>
@@ -10726,7 +10753,7 @@
       </c>
       <c r="IA10">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="IB10">
         <f t="shared" si="8"/>
@@ -10734,7 +10761,7 @@
       </c>
       <c r="IC10">
         <f t="shared" si="9"/>
-        <v>3727</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="11" spans="1:237" x14ac:dyDescent="0.3">
@@ -10776,7 +10803,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="11"/>
@@ -10860,11 +10887,11 @@
       </c>
       <c r="AF11">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <f t="shared" si="11"/>
@@ -10900,7 +10927,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="11"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="11"/>
@@ -10920,15 +10947,15 @@
       </c>
       <c r="AU11">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AV11">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AW11">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AX11">
         <f t="shared" si="11"/>
@@ -10952,7 +10979,7 @@
       </c>
       <c r="BC11">
         <f t="shared" si="11"/>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="BD11">
         <f t="shared" si="11"/>
@@ -10960,7 +10987,7 @@
       </c>
       <c r="BE11">
         <f t="shared" si="11"/>
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="BF11">
         <f t="shared" si="11"/>
@@ -10992,7 +11019,7 @@
       </c>
       <c r="BM11">
         <f t="shared" si="11"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="BN11">
         <f t="shared" si="11"/>
@@ -11052,7 +11079,7 @@
       </c>
       <c r="CB11">
         <f t="shared" si="6"/>
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="CC11">
         <f t="shared" si="6"/>
@@ -11068,11 +11095,11 @@
       </c>
       <c r="CF11">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="CG11">
         <f t="shared" si="6"/>
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="CH11">
         <f t="shared" si="6"/>
@@ -11084,7 +11111,7 @@
       </c>
       <c r="CJ11">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CK11">
         <f t="shared" si="6"/>
@@ -11092,7 +11119,7 @@
       </c>
       <c r="CL11">
         <f t="shared" si="6"/>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="CM11">
         <f t="shared" si="6"/>
@@ -11180,7 +11207,7 @@
       </c>
       <c r="DH11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI11">
         <f t="shared" si="6"/>
@@ -11192,7 +11219,7 @@
       </c>
       <c r="DK11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DL11">
         <f t="shared" si="6"/>
@@ -11216,7 +11243,7 @@
       </c>
       <c r="DQ11">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="DR11">
         <f t="shared" si="6"/>
@@ -11300,7 +11327,7 @@
       </c>
       <c r="EL11">
         <f t="shared" si="7"/>
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="EM11">
         <f t="shared" si="7"/>
@@ -11316,7 +11343,7 @@
       </c>
       <c r="EP11">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="EQ11">
         <f t="shared" si="7"/>
@@ -11448,7 +11475,7 @@
       </c>
       <c r="FW11">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX11">
         <f t="shared" si="7"/>
@@ -11520,7 +11547,7 @@
       </c>
       <c r="GO11">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="GP11">
         <f t="shared" si="8"/>
@@ -11576,7 +11603,7 @@
       </c>
       <c r="HC11">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="HD11">
         <f t="shared" si="8"/>
@@ -11664,7 +11691,7 @@
       </c>
       <c r="HY11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="HZ11">
         <f t="shared" si="8"/>
@@ -11672,7 +11699,7 @@
       </c>
       <c r="IA11">
         <f t="shared" si="8"/>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IB11">
         <f t="shared" si="8"/>
@@ -11680,7 +11707,7 @@
       </c>
       <c r="IC11">
         <f t="shared" si="9"/>
-        <v>6704</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="12" spans="1:237" x14ac:dyDescent="0.3">
@@ -11722,7 +11749,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="12"/>
@@ -11806,11 +11833,11 @@
       </c>
       <c r="AF12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12">
         <f t="shared" si="12"/>
@@ -11846,7 +11873,7 @@
       </c>
       <c r="AP12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="12"/>
@@ -11866,15 +11893,15 @@
       </c>
       <c r="AU12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12">
         <f t="shared" si="12"/>
@@ -11898,7 +11925,7 @@
       </c>
       <c r="BC12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12">
         <f t="shared" si="12"/>
@@ -11906,7 +11933,7 @@
       </c>
       <c r="BE12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12">
         <f t="shared" si="12"/>
@@ -11938,7 +11965,7 @@
       </c>
       <c r="BM12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12">
         <f t="shared" si="12"/>
@@ -11998,7 +12025,7 @@
       </c>
       <c r="CB12">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC12">
         <f t="shared" si="13"/>
@@ -12014,11 +12041,11 @@
       </c>
       <c r="CF12">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG12">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH12">
         <f t="shared" si="13"/>
@@ -12030,7 +12057,7 @@
       </c>
       <c r="CJ12">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK12">
         <f t="shared" si="13"/>
@@ -12038,7 +12065,7 @@
       </c>
       <c r="CL12">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM12">
         <f t="shared" si="13"/>
@@ -12126,7 +12153,7 @@
       </c>
       <c r="DH12">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI12">
         <f t="shared" si="13"/>
@@ -12138,7 +12165,7 @@
       </c>
       <c r="DK12">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL12">
         <f t="shared" si="13"/>
@@ -12162,7 +12189,7 @@
       </c>
       <c r="DQ12">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR12">
         <f t="shared" si="13"/>
@@ -12246,11 +12273,11 @@
       </c>
       <c r="EL12">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EM12">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN12">
         <f t="shared" si="14"/>
@@ -12262,7 +12289,7 @@
       </c>
       <c r="EP12">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ12">
         <f t="shared" si="14"/>
@@ -12394,7 +12421,7 @@
       </c>
       <c r="FW12">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX12">
         <f t="shared" si="14"/>
@@ -12466,7 +12493,7 @@
       </c>
       <c r="GO12">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GP12">
         <f t="shared" si="15"/>
@@ -12522,7 +12549,7 @@
       </c>
       <c r="HC12">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HD12">
         <f t="shared" si="15"/>
@@ -12610,7 +12637,7 @@
       </c>
       <c r="HY12">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ12">
         <f t="shared" si="15"/>
@@ -12618,7 +12645,7 @@
       </c>
       <c r="IA12">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB12">
         <f t="shared" si="15"/>
@@ -12626,7 +12653,7 @@
       </c>
       <c r="IC12">
         <f t="shared" si="9"/>
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:237" x14ac:dyDescent="0.3">
@@ -12668,7 +12695,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="16"/>
@@ -12752,11 +12779,11 @@
       </c>
       <c r="AF13">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <f t="shared" si="16"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <f t="shared" si="16"/>
@@ -12792,7 +12819,7 @@
       </c>
       <c r="AP13">
         <f t="shared" si="16"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="16"/>
@@ -12812,15 +12839,15 @@
       </c>
       <c r="AU13">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <f t="shared" si="16"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AW13">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX13">
         <f t="shared" si="16"/>
@@ -12844,7 +12871,7 @@
       </c>
       <c r="BC13">
         <f t="shared" si="16"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BD13">
         <f t="shared" si="16"/>
@@ -12852,7 +12879,7 @@
       </c>
       <c r="BE13">
         <f t="shared" si="16"/>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="BF13">
         <f t="shared" si="16"/>
@@ -12884,7 +12911,7 @@
       </c>
       <c r="BM13">
         <f t="shared" si="16"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BN13">
         <f t="shared" si="16"/>
@@ -12944,7 +12971,7 @@
       </c>
       <c r="CB13">
         <f t="shared" si="17"/>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="CC13">
         <f t="shared" si="17"/>
@@ -12960,11 +12987,11 @@
       </c>
       <c r="CF13">
         <f t="shared" si="17"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="CG13">
         <f t="shared" si="17"/>
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="CH13">
         <f t="shared" si="17"/>
@@ -12976,7 +13003,7 @@
       </c>
       <c r="CJ13">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CK13">
         <f t="shared" si="17"/>
@@ -12984,7 +13011,7 @@
       </c>
       <c r="CL13">
         <f t="shared" si="17"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CM13">
         <f t="shared" si="17"/>
@@ -13072,7 +13099,7 @@
       </c>
       <c r="DH13">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="DI13">
         <f t="shared" si="17"/>
@@ -13084,7 +13111,7 @@
       </c>
       <c r="DK13">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DL13">
         <f t="shared" si="17"/>
@@ -13108,7 +13135,7 @@
       </c>
       <c r="DQ13">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="DR13">
         <f t="shared" si="17"/>
@@ -13192,11 +13219,11 @@
       </c>
       <c r="EL13">
         <f t="shared" si="18"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="EM13">
         <f t="shared" si="18"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="EN13">
         <f t="shared" si="18"/>
@@ -13208,7 +13235,7 @@
       </c>
       <c r="EP13">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="EQ13">
         <f t="shared" si="18"/>
@@ -13340,7 +13367,7 @@
       </c>
       <c r="FW13">
         <f t="shared" si="18"/>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="FX13">
         <f t="shared" si="18"/>
@@ -13412,7 +13439,7 @@
       </c>
       <c r="GO13">
         <f t="shared" si="19"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="GP13">
         <f t="shared" si="19"/>
@@ -13468,7 +13495,7 @@
       </c>
       <c r="HC13">
         <f t="shared" si="19"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="HD13">
         <f t="shared" si="19"/>
@@ -13556,7 +13583,7 @@
       </c>
       <c r="HY13">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="HZ13">
         <f t="shared" si="19"/>
@@ -13564,7 +13591,7 @@
       </c>
       <c r="IA13">
         <f t="shared" si="19"/>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="IB13">
         <f t="shared" si="19"/>
@@ -13572,7 +13599,7 @@
       </c>
       <c r="IC13">
         <f t="shared" si="9"/>
-        <v>4393</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="14" spans="1:237" x14ac:dyDescent="0.3">
@@ -13614,7 +13641,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="20"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="20"/>
@@ -13698,11 +13725,11 @@
       </c>
       <c r="AF14">
         <f t="shared" si="20"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <f t="shared" si="20"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <f t="shared" si="20"/>
@@ -13738,7 +13765,7 @@
       </c>
       <c r="AP14">
         <f t="shared" si="20"/>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="20"/>
@@ -13758,15 +13785,15 @@
       </c>
       <c r="AU14">
         <f t="shared" si="20"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AV14">
         <f t="shared" si="20"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AW14">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <f t="shared" si="20"/>
@@ -13790,7 +13817,7 @@
       </c>
       <c r="BC14">
         <f t="shared" si="20"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BD14">
         <f t="shared" si="20"/>
@@ -13798,7 +13825,7 @@
       </c>
       <c r="BE14">
         <f t="shared" si="20"/>
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="BF14">
         <f t="shared" si="20"/>
@@ -13830,7 +13857,7 @@
       </c>
       <c r="BM14">
         <f t="shared" si="20"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="BN14">
         <f t="shared" si="20"/>
@@ -13890,7 +13917,7 @@
       </c>
       <c r="CB14">
         <f t="shared" si="21"/>
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="CC14">
         <f t="shared" si="21"/>
@@ -13906,11 +13933,11 @@
       </c>
       <c r="CF14">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="CG14">
         <f t="shared" si="21"/>
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="CH14">
         <f t="shared" si="21"/>
@@ -13922,7 +13949,7 @@
       </c>
       <c r="CJ14">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CK14">
         <f t="shared" si="21"/>
@@ -13930,7 +13957,7 @@
       </c>
       <c r="CL14">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="CM14">
         <f t="shared" si="21"/>
@@ -14018,7 +14045,7 @@
       </c>
       <c r="DH14">
         <f t="shared" si="21"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="DI14">
         <f t="shared" si="21"/>
@@ -14030,7 +14057,7 @@
       </c>
       <c r="DK14">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DL14">
         <f t="shared" si="21"/>
@@ -14054,7 +14081,7 @@
       </c>
       <c r="DQ14">
         <f t="shared" si="21"/>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="DR14">
         <f t="shared" si="21"/>
@@ -14138,11 +14165,11 @@
       </c>
       <c r="EL14">
         <f t="shared" si="22"/>
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="EM14">
         <f t="shared" si="22"/>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="EN14">
         <f t="shared" si="22"/>
@@ -14154,7 +14181,7 @@
       </c>
       <c r="EP14">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="EQ14">
         <f t="shared" si="22"/>
@@ -14286,7 +14313,7 @@
       </c>
       <c r="FW14">
         <f t="shared" si="22"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="FX14">
         <f t="shared" si="22"/>
@@ -14358,7 +14385,7 @@
       </c>
       <c r="GO14">
         <f t="shared" si="23"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="GP14">
         <f t="shared" si="23"/>
@@ -14414,7 +14441,7 @@
       </c>
       <c r="HC14">
         <f t="shared" si="23"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="HD14">
         <f t="shared" si="23"/>
@@ -14502,7 +14529,7 @@
       </c>
       <c r="HY14">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="HZ14">
         <f t="shared" si="23"/>
@@ -14510,7 +14537,7 @@
       </c>
       <c r="IA14">
         <f t="shared" si="23"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="IB14">
         <f t="shared" si="23"/>
@@ -14518,7 +14545,7 @@
       </c>
       <c r="IC14">
         <f t="shared" si="9"/>
-        <v>8062</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="15" spans="1:237" x14ac:dyDescent="0.3">
@@ -14560,7 +14587,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="24"/>
@@ -14644,11 +14671,11 @@
       </c>
       <c r="AF15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <f t="shared" si="24"/>
@@ -14684,7 +14711,7 @@
       </c>
       <c r="AP15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="24"/>
@@ -14708,11 +14735,11 @@
       </c>
       <c r="AV15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX15">
         <f t="shared" si="24"/>
@@ -14736,7 +14763,7 @@
       </c>
       <c r="BC15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15">
         <f t="shared" si="24"/>
@@ -14776,7 +14803,7 @@
       </c>
       <c r="BM15">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15">
         <f t="shared" si="24"/>
@@ -14836,7 +14863,7 @@
       </c>
       <c r="CB15">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC15">
         <f t="shared" si="25"/>
@@ -14852,11 +14879,11 @@
       </c>
       <c r="CF15">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG15">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH15">
         <f t="shared" si="25"/>
@@ -14868,7 +14895,7 @@
       </c>
       <c r="CJ15">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK15">
         <f t="shared" si="25"/>
@@ -14876,7 +14903,7 @@
       </c>
       <c r="CL15">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM15">
         <f t="shared" si="25"/>
@@ -15000,7 +15027,7 @@
       </c>
       <c r="DQ15">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR15">
         <f t="shared" si="25"/>
@@ -15084,7 +15111,7 @@
       </c>
       <c r="EL15">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM15">
         <f t="shared" si="26"/>
@@ -15100,7 +15127,7 @@
       </c>
       <c r="EP15">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ15">
         <f t="shared" si="26"/>
@@ -15304,7 +15331,7 @@
       </c>
       <c r="GO15">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GP15">
         <f t="shared" si="27"/>
@@ -15360,7 +15387,7 @@
       </c>
       <c r="HC15">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD15">
         <f t="shared" si="27"/>
@@ -15448,7 +15475,7 @@
       </c>
       <c r="HY15">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ15">
         <f t="shared" si="27"/>
@@ -15456,7 +15483,7 @@
       </c>
       <c r="IA15">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB15">
         <f t="shared" si="27"/>
@@ -15502,7 +15529,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="28"/>
-        <v>0.40740740740740738</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="28"/>
@@ -15586,11 +15613,11 @@
       </c>
       <c r="AF16">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <f t="shared" si="24"/>
-        <v>0.96666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <f t="shared" si="24"/>
@@ -15626,7 +15653,7 @@
       </c>
       <c r="AP16">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="24"/>
@@ -15646,15 +15673,15 @@
       </c>
       <c r="AU16">
         <f t="shared" si="24"/>
-        <v>7.407407407407407E-2</v>
+        <v>0</v>
       </c>
       <c r="AV16">
         <f t="shared" si="24"/>
-        <v>0.88235294117647056</v>
+        <v>0</v>
       </c>
       <c r="AW16">
         <f t="shared" si="24"/>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AX16">
         <f t="shared" si="24"/>
@@ -15678,7 +15705,7 @@
       </c>
       <c r="BC16">
         <f t="shared" si="24"/>
-        <v>0.67441860465116277</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <f t="shared" si="24"/>
@@ -15686,7 +15713,7 @@
       </c>
       <c r="BE16">
         <f t="shared" si="24"/>
-        <v>0.51754385964912286</v>
+        <v>0</v>
       </c>
       <c r="BF16">
         <f t="shared" si="24"/>
@@ -15718,7 +15745,7 @@
       </c>
       <c r="BM16">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16">
         <f t="shared" si="24"/>
@@ -15778,7 +15805,7 @@
       </c>
       <c r="CB16">
         <f t="shared" si="25"/>
-        <v>0.98863636363636365</v>
+        <v>0</v>
       </c>
       <c r="CC16">
         <f t="shared" si="25"/>
@@ -15794,11 +15821,11 @@
       </c>
       <c r="CF16">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG16">
         <f t="shared" si="25"/>
-        <v>0.949438202247191</v>
+        <v>0</v>
       </c>
       <c r="CH16">
         <f t="shared" si="25"/>
@@ -15810,7 +15837,7 @@
       </c>
       <c r="CJ16">
         <f t="shared" si="25"/>
-        <v>0.84615384615384615</v>
+        <v>0</v>
       </c>
       <c r="CK16">
         <f t="shared" si="25"/>
@@ -15818,7 +15845,7 @@
       </c>
       <c r="CL16">
         <f t="shared" si="25"/>
-        <v>0.92727272727272725</v>
+        <v>0</v>
       </c>
       <c r="CM16">
         <f t="shared" si="25"/>
@@ -15942,7 +15969,7 @@
       </c>
       <c r="DQ16">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR16">
         <f t="shared" si="25"/>
@@ -16026,7 +16053,7 @@
       </c>
       <c r="EL16">
         <f t="shared" si="26"/>
-        <v>0.97222222222222221</v>
+        <v>0</v>
       </c>
       <c r="EM16">
         <f t="shared" si="26"/>
@@ -16042,7 +16069,7 @@
       </c>
       <c r="EP16">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ16">
         <f t="shared" si="26"/>
@@ -16246,7 +16273,7 @@
       </c>
       <c r="GO16">
         <f t="shared" si="27"/>
-        <v>0.88888888888888884</v>
+        <v>0</v>
       </c>
       <c r="GP16">
         <f t="shared" si="27"/>
@@ -16302,7 +16329,7 @@
       </c>
       <c r="HC16">
         <f t="shared" si="27"/>
-        <v>0.92156862745098034</v>
+        <v>0</v>
       </c>
       <c r="HD16">
         <f t="shared" si="27"/>
@@ -16390,7 +16417,7 @@
       </c>
       <c r="HY16">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ16">
         <f t="shared" si="27"/>
@@ -16398,7 +16425,7 @@
       </c>
       <c r="IA16">
         <f t="shared" si="27"/>
-        <v>0.93103448275862066</v>
+        <v>0</v>
       </c>
       <c r="IB16">
         <f t="shared" si="27"/>
@@ -16444,7 +16471,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="29"/>
-        <v>0.18604651162790697</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="29"/>
@@ -16528,11 +16555,11 @@
       </c>
       <c r="AF17">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <f t="shared" si="29"/>
-        <v>0.96511627906976749</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <f t="shared" si="29"/>
@@ -16568,7 +16595,7 @@
       </c>
       <c r="AP17">
         <f t="shared" si="29"/>
-        <v>0.96938775510204078</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="29"/>
@@ -16588,15 +16615,15 @@
       </c>
       <c r="AU17">
         <f t="shared" si="29"/>
-        <v>0.50847457627118642</v>
+        <v>0</v>
       </c>
       <c r="AV17">
         <f t="shared" si="29"/>
-        <v>0.94117647058823528</v>
+        <v>0</v>
       </c>
       <c r="AW17">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17">
         <f t="shared" si="29"/>
@@ -16620,7 +16647,7 @@
       </c>
       <c r="BC17">
         <f t="shared" si="29"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="BD17">
         <f t="shared" si="29"/>
@@ -16628,7 +16655,7 @@
       </c>
       <c r="BE17">
         <f t="shared" si="29"/>
-        <v>0.50270270270270268</v>
+        <v>0</v>
       </c>
       <c r="BF17">
         <f t="shared" si="29"/>
@@ -16660,7 +16687,7 @@
       </c>
       <c r="BM17">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN17">
         <f t="shared" si="29"/>
@@ -16720,7 +16747,7 @@
       </c>
       <c r="CB17">
         <f t="shared" si="25"/>
-        <v>0.91443850267379678</v>
+        <v>0</v>
       </c>
       <c r="CC17">
         <f t="shared" si="25"/>
@@ -16736,11 +16763,11 @@
       </c>
       <c r="CF17">
         <f t="shared" si="25"/>
-        <v>0.91489361702127658</v>
+        <v>0</v>
       </c>
       <c r="CG17">
         <f t="shared" si="25"/>
-        <v>0.86186186186186187</v>
+        <v>0</v>
       </c>
       <c r="CH17">
         <f t="shared" si="25"/>
@@ -16752,7 +16779,7 @@
       </c>
       <c r="CJ17">
         <f t="shared" si="25"/>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="CK17">
         <f t="shared" si="25"/>
@@ -16760,7 +16787,7 @@
       </c>
       <c r="CL17">
         <f t="shared" si="25"/>
-        <v>0.78676470588235292</v>
+        <v>0</v>
       </c>
       <c r="CM17">
         <f t="shared" si="25"/>
@@ -16848,7 +16875,7 @@
       </c>
       <c r="DH17">
         <f t="shared" si="25"/>
-        <v>1.8181818181818181E-2</v>
+        <v>0</v>
       </c>
       <c r="DI17">
         <f t="shared" si="25"/>
@@ -16860,7 +16887,7 @@
       </c>
       <c r="DK17">
         <f t="shared" si="25"/>
-        <v>0.45454545454545453</v>
+        <v>0</v>
       </c>
       <c r="DL17">
         <f t="shared" si="25"/>
@@ -16884,7 +16911,7 @@
       </c>
       <c r="DQ17">
         <f t="shared" si="25"/>
-        <v>0.92063492063492058</v>
+        <v>0</v>
       </c>
       <c r="DR17">
         <f t="shared" si="25"/>
@@ -16968,7 +16995,7 @@
       </c>
       <c r="EL17">
         <f t="shared" si="26"/>
-        <v>0.97637795275590555</v>
+        <v>0</v>
       </c>
       <c r="EM17">
         <f t="shared" si="26"/>
@@ -16984,7 +17011,7 @@
       </c>
       <c r="EP17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ17">
         <f t="shared" si="26"/>
@@ -17116,7 +17143,7 @@
       </c>
       <c r="FW17">
         <f t="shared" si="26"/>
-        <v>4.0816326530612249E-3</v>
+        <v>0</v>
       </c>
       <c r="FX17">
         <f t="shared" si="26"/>
@@ -17188,7 +17215,7 @@
       </c>
       <c r="GO17">
         <f t="shared" si="27"/>
-        <v>0.90196078431372551</v>
+        <v>0</v>
       </c>
       <c r="GP17">
         <f t="shared" si="27"/>
@@ -17244,7 +17271,7 @@
       </c>
       <c r="HC17">
         <f t="shared" si="27"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="HD17">
         <f t="shared" si="27"/>
@@ -17332,7 +17359,7 @@
       </c>
       <c r="HY17">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ17">
         <f t="shared" si="27"/>
@@ -17340,7 +17367,7 @@
       </c>
       <c r="IA17">
         <f t="shared" si="27"/>
-        <v>0.96250000000000002</v>
+        <v>0</v>
       </c>
       <c r="IB17">
         <f t="shared" si="27"/>
@@ -17350,141 +17377,141 @@
     <row r="19" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A19" cm="1">
         <f t="array" ref="A19">_xlfn.STDEV.P(IF($B$8:$IB$8&gt;0,B15:IB15))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>5.8617870210439189E-2</v>
+        <v>6.4406118871952994E-2</v>
       </c>
       <c r="B19" t="s">
         <v>245</v>
       </c>
       <c r="C19">
         <f>AVERAGEIF(B8:IB8,"=1",B15:IB15)</f>
-        <v>0.82578397212543564</v>
+        <v>0.92380952380952386</v>
       </c>
       <c r="D19">
         <f>ROUND(C19,3)</f>
-        <v>0.82599999999999996</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="E19">
         <f>ROUND(A19,3)</f>
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M19" t="s">
         <v>245</v>
       </c>
       <c r="N19">
         <f>IC9/IC12</f>
-        <v>0.91034482758620694</v>
+        <v>0.93965517241379315</v>
       </c>
     </row>
     <row r="20" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A20" cm="1">
         <f t="array" ref="A20">_xlfn.STDEV.P(IF($B$8:$IB$8&gt;0,B16:IB16))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>5.3486198474669636E-2</v>
+        <v>6.3814737127854057E-2</v>
       </c>
       <c r="B20" t="s">
         <v>246</v>
       </c>
       <c r="C20">
         <f>AVERAGEIF(B8:IB8,"=1",B16:IB16)</f>
-        <v>0.78204504308989009</v>
+        <v>0.88393499968579292</v>
       </c>
       <c r="D20">
         <f>ROUND(C20,3)</f>
-        <v>0.78200000000000003</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="E20">
         <f>ROUND(A20,3)</f>
-        <v>5.2999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M20" t="s">
         <v>246</v>
       </c>
       <c r="N20">
         <f>IC10/IC13</f>
-        <v>0.84839517414067833</v>
+        <v>0.88368336025848138</v>
       </c>
     </row>
     <row r="21" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A21" cm="1">
         <f t="array" ref="A21">_xlfn.STDEV.P(IF($B$8:$IB$8&gt;0,B17:IB17))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>4.8124422960594368E-2</v>
+        <v>6.311397273589664E-2</v>
       </c>
       <c r="B21" t="s">
         <v>247</v>
       </c>
       <c r="C21">
         <f>AVERAGEIF(B8:IB8,"=1",B17:IB17)</f>
-        <v>0.7767889684040411</v>
+        <v>0.85861347724531156</v>
       </c>
       <c r="D21">
         <f>ROUND(C21,3)</f>
-        <v>0.77700000000000002</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="E21">
         <f>ROUND(A21,3)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="M21" t="s">
         <v>247</v>
       </c>
       <c r="N21">
         <f>IC11/IC14</f>
-        <v>0.83155544529893322</v>
+        <v>0.88457290132547861</v>
       </c>
     </row>
     <row r="22" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A22" cm="1">
         <f t="array" ref="A22">_xlfn.STDEV.P(IF($B$8:$IB$8&gt;0,B33:IB33))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>4.6083506712083035E-2</v>
+        <v>6.8870424089241239E-2</v>
       </c>
       <c r="B22" t="s">
         <v>251</v>
       </c>
       <c r="C22">
         <f>AVERAGEIF(B8:IB8,"=1",B33:IB33)</f>
-        <v>0.73028960123483333</v>
+        <v>0.75718695561509075</v>
       </c>
       <c r="D22">
         <f>ROUND(C22,3)</f>
-        <v>0.73</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="E22">
         <f>ROUND(A22,3)</f>
-        <v>4.5999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="M22" t="s">
         <v>244</v>
       </c>
       <c r="N22">
         <f>IC31/IC32</f>
-        <v>0.74894377640558984</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A23" cm="1">
         <f t="array" ref="A23">_xlfn.STDEV.P(IF($B$8:$IB$8&gt;0,B39:IB39))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>4.1987062841110943E-2</v>
+        <v>6.1954818665017355E-2</v>
       </c>
       <c r="B23" t="s">
         <v>252</v>
       </c>
       <c r="C23">
         <f>AVERAGEIF(B8:IB8,"=1",B39:IB39)</f>
-        <v>0.71714088701824663</v>
+        <v>0.76951392786259987</v>
       </c>
       <c r="D23">
         <f>ROUND(C23,3)</f>
-        <v>0.71699999999999997</v>
+        <v>0.77</v>
       </c>
       <c r="E23">
         <f>ROUND(A23,3)</f>
-        <v>4.2000000000000003E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="M23" t="s">
         <v>250</v>
       </c>
       <c r="N23">
         <f>IC37/IC38</f>
-        <v>0.73364687205240076</v>
+        <v>0.7663423978643169</v>
       </c>
     </row>
     <row r="29" spans="1:238" x14ac:dyDescent="0.3">
@@ -18954,7 +18981,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="30"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <f t="shared" si="30"/>
@@ -19038,11 +19065,11 @@
       </c>
       <c r="AF31">
         <f t="shared" si="30"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <f t="shared" si="30"/>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <f t="shared" si="30"/>
@@ -19078,7 +19105,7 @@
       </c>
       <c r="AP31">
         <f t="shared" si="30"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
         <f t="shared" si="30"/>
@@ -19098,15 +19125,15 @@
       </c>
       <c r="AU31">
         <f t="shared" si="30"/>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AV31">
         <f t="shared" si="30"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AW31">
         <f t="shared" si="30"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AX31">
         <f t="shared" si="30"/>
@@ -19130,7 +19157,7 @@
       </c>
       <c r="BC31">
         <f t="shared" si="30"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BD31">
         <f t="shared" si="30"/>
@@ -19138,7 +19165,7 @@
       </c>
       <c r="BE31">
         <f t="shared" si="30"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BF31">
         <f t="shared" si="30"/>
@@ -19170,7 +19197,7 @@
       </c>
       <c r="BM31">
         <f t="shared" si="30"/>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="BN31">
         <f t="shared" si="30"/>
@@ -19230,7 +19257,7 @@
       </c>
       <c r="CB31">
         <f t="shared" si="31"/>
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="CC31">
         <f t="shared" si="31"/>
@@ -19246,11 +19273,11 @@
       </c>
       <c r="CF31">
         <f t="shared" si="31"/>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="CG31">
         <f t="shared" si="31"/>
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="CH31">
         <f t="shared" si="31"/>
@@ -19262,7 +19289,7 @@
       </c>
       <c r="CJ31">
         <f t="shared" si="31"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="CK31">
         <f t="shared" si="31"/>
@@ -19270,7 +19297,7 @@
       </c>
       <c r="CL31">
         <f t="shared" si="31"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CM31">
         <f t="shared" si="31"/>
@@ -19358,7 +19385,7 @@
       </c>
       <c r="DH31">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="DI31">
         <f t="shared" si="31"/>
@@ -19370,7 +19397,7 @@
       </c>
       <c r="DK31">
         <f t="shared" si="31"/>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="DL31">
         <f t="shared" si="31"/>
@@ -19394,7 +19421,7 @@
       </c>
       <c r="DQ31">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DR31">
         <f t="shared" si="31"/>
@@ -19478,11 +19505,11 @@
       </c>
       <c r="EL31">
         <f t="shared" si="32"/>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="EM31">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN31">
         <f t="shared" si="32"/>
@@ -19494,7 +19521,7 @@
       </c>
       <c r="EP31">
         <f t="shared" si="32"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="EQ31">
         <f t="shared" si="32"/>
@@ -19698,7 +19725,7 @@
       </c>
       <c r="GO31">
         <f t="shared" si="33"/>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="GP31">
         <f t="shared" si="33"/>
@@ -19754,7 +19781,7 @@
       </c>
       <c r="HC31">
         <f t="shared" si="33"/>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="HD31">
         <f t="shared" si="33"/>
@@ -19842,7 +19869,7 @@
       </c>
       <c r="HY31">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="HZ31">
         <f t="shared" si="33"/>
@@ -19850,7 +19877,7 @@
       </c>
       <c r="IA31">
         <f t="shared" si="33"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="IB31">
         <f t="shared" si="33"/>
@@ -19858,7 +19885,7 @@
       </c>
       <c r="IC31">
         <f>SUM(B31:IB31)</f>
-        <v>4609</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="32" spans="1:238" x14ac:dyDescent="0.3">
@@ -19900,7 +19927,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="34"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <f t="shared" si="34"/>
@@ -19984,11 +20011,11 @@
       </c>
       <c r="AF32">
         <f t="shared" si="34"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AG32">
         <f t="shared" si="34"/>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AH32">
         <f t="shared" si="34"/>
@@ -20024,7 +20051,7 @@
       </c>
       <c r="AP32">
         <f t="shared" si="34"/>
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
         <f t="shared" si="34"/>
@@ -20044,15 +20071,15 @@
       </c>
       <c r="AU32">
         <f t="shared" si="34"/>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AV32">
         <f t="shared" si="34"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AW32">
         <f t="shared" si="34"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AX32">
         <f t="shared" si="34"/>
@@ -20076,7 +20103,7 @@
       </c>
       <c r="BC32">
         <f t="shared" si="34"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="BD32">
         <f t="shared" si="34"/>
@@ -20084,7 +20111,7 @@
       </c>
       <c r="BE32">
         <f t="shared" si="34"/>
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="BF32">
         <f t="shared" si="34"/>
@@ -20116,7 +20143,7 @@
       </c>
       <c r="BM32">
         <f t="shared" si="34"/>
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="BN32">
         <f t="shared" ref="BN32:DY32" si="35">IF(BN$8=1,BN29+BN30,0)</f>
@@ -20176,7 +20203,7 @@
       </c>
       <c r="CB32">
         <f t="shared" si="35"/>
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="CC32">
         <f t="shared" si="35"/>
@@ -20192,11 +20219,11 @@
       </c>
       <c r="CF32">
         <f t="shared" si="35"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="CG32">
         <f t="shared" si="35"/>
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="CH32">
         <f t="shared" si="35"/>
@@ -20208,7 +20235,7 @@
       </c>
       <c r="CJ32">
         <f t="shared" si="35"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="CK32">
         <f t="shared" si="35"/>
@@ -20216,7 +20243,7 @@
       </c>
       <c r="CL32">
         <f t="shared" si="35"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CM32">
         <f t="shared" si="35"/>
@@ -20304,7 +20331,7 @@
       </c>
       <c r="DH32">
         <f t="shared" si="35"/>
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="DI32">
         <f t="shared" si="35"/>
@@ -20316,7 +20343,7 @@
       </c>
       <c r="DK32">
         <f t="shared" si="35"/>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="DL32">
         <f t="shared" si="35"/>
@@ -20340,7 +20367,7 @@
       </c>
       <c r="DQ32">
         <f t="shared" si="35"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="DR32">
         <f t="shared" si="35"/>
@@ -20424,11 +20451,11 @@
       </c>
       <c r="EL32">
         <f t="shared" si="36"/>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="EM32">
         <f t="shared" si="36"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="EN32">
         <f t="shared" si="36"/>
@@ -20440,7 +20467,7 @@
       </c>
       <c r="EP32">
         <f t="shared" si="36"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="EQ32">
         <f t="shared" si="36"/>
@@ -20572,7 +20599,7 @@
       </c>
       <c r="FW32">
         <f t="shared" si="36"/>
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="FX32">
         <f t="shared" si="36"/>
@@ -20644,7 +20671,7 @@
       </c>
       <c r="GO32">
         <f t="shared" si="37"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="GP32">
         <f t="shared" si="37"/>
@@ -20700,7 +20727,7 @@
       </c>
       <c r="HC32">
         <f t="shared" si="37"/>
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="HD32">
         <f t="shared" si="37"/>
@@ -20788,7 +20815,7 @@
       </c>
       <c r="HY32">
         <f t="shared" si="37"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="HZ32">
         <f t="shared" si="37"/>
@@ -20796,7 +20823,7 @@
       </c>
       <c r="IA32">
         <f t="shared" si="37"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="IB32">
         <f t="shared" si="37"/>
@@ -20804,11 +20831,11 @@
       </c>
       <c r="IC32">
         <f>SUM(B32:IB32)</f>
-        <v>6154</v>
+        <v>3000</v>
       </c>
       <c r="ID32">
         <f>IC31/IC32</f>
-        <v>0.74894377640558984</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:238" x14ac:dyDescent="0.3">
@@ -20850,7 +20877,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="38"/>
-        <v>0.79166666666666663</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f t="shared" si="38"/>
@@ -20934,11 +20961,11 @@
       </c>
       <c r="AF33">
         <f t="shared" si="38"/>
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <f t="shared" si="38"/>
-        <v>0.96610169491525422</v>
+        <v>0</v>
       </c>
       <c r="AH33">
         <f t="shared" si="38"/>
@@ -20974,7 +21001,7 @@
       </c>
       <c r="AP33">
         <f t="shared" si="38"/>
-        <v>0.91463414634146345</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
         <f t="shared" si="38"/>
@@ -20994,15 +21021,15 @@
       </c>
       <c r="AU33">
         <f t="shared" si="38"/>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AV33">
         <f t="shared" si="38"/>
-        <v>0.86792452830188682</v>
+        <v>0</v>
       </c>
       <c r="AW33">
         <f t="shared" si="38"/>
-        <v>0.84285714285714286</v>
+        <v>0</v>
       </c>
       <c r="AX33">
         <f t="shared" si="38"/>
@@ -21026,7 +21053,7 @@
       </c>
       <c r="BC33">
         <f t="shared" si="38"/>
-        <v>0.47222222222222221</v>
+        <v>0</v>
       </c>
       <c r="BD33">
         <f t="shared" si="38"/>
@@ -21034,7 +21061,7 @@
       </c>
       <c r="BE33">
         <f t="shared" si="38"/>
-        <v>0.54878048780487809</v>
+        <v>0</v>
       </c>
       <c r="BF33">
         <f t="shared" si="38"/>
@@ -21066,7 +21093,7 @@
       </c>
       <c r="BM33">
         <f t="shared" si="38"/>
-        <v>0.99526066350710896</v>
+        <v>0</v>
       </c>
       <c r="BN33">
         <f t="shared" ref="BN33:DY33" si="39">IF(BN8=1,BN31/BN32,0)</f>
@@ -21126,7 +21153,7 @@
       </c>
       <c r="CB33">
         <f t="shared" si="39"/>
-        <v>0.94576271186440675</v>
+        <v>0</v>
       </c>
       <c r="CC33">
         <f t="shared" si="39"/>
@@ -21142,11 +21169,11 @@
       </c>
       <c r="CF33">
         <f t="shared" si="39"/>
-        <v>0.96212121212121215</v>
+        <v>0</v>
       </c>
       <c r="CG33">
         <f t="shared" si="39"/>
-        <v>0.8328840970350404</v>
+        <v>0</v>
       </c>
       <c r="CH33">
         <f t="shared" si="39"/>
@@ -21158,7 +21185,7 @@
       </c>
       <c r="CJ33">
         <f t="shared" si="39"/>
-        <v>0.44230769230769229</v>
+        <v>0</v>
       </c>
       <c r="CK33">
         <f t="shared" si="39"/>
@@ -21166,7 +21193,7 @@
       </c>
       <c r="CL33">
         <f t="shared" si="39"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CM33">
         <f t="shared" si="39"/>
@@ -21254,7 +21281,7 @@
       </c>
       <c r="DH33">
         <f t="shared" si="39"/>
-        <v>5.0847457627118647E-2</v>
+        <v>0</v>
       </c>
       <c r="DI33">
         <f t="shared" si="39"/>
@@ -21266,7 +21293,7 @@
       </c>
       <c r="DK33">
         <f t="shared" si="39"/>
-        <v>0.39189189189189189</v>
+        <v>0</v>
       </c>
       <c r="DL33">
         <f t="shared" si="39"/>
@@ -21290,7 +21317,7 @@
       </c>
       <c r="DQ33">
         <f t="shared" si="39"/>
-        <v>0.98039215686274506</v>
+        <v>0</v>
       </c>
       <c r="DR33">
         <f t="shared" si="39"/>
@@ -21374,11 +21401,11 @@
       </c>
       <c r="EL33">
         <f t="shared" si="40"/>
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="EM33">
         <f t="shared" si="40"/>
-        <v>3.2258064516129031E-2</v>
+        <v>0</v>
       </c>
       <c r="EN33">
         <f t="shared" si="40"/>
@@ -21390,7 +21417,7 @@
       </c>
       <c r="EP33">
         <f t="shared" si="40"/>
-        <v>0.92753623188405798</v>
+        <v>0</v>
       </c>
       <c r="EQ33">
         <f t="shared" si="40"/>
@@ -21594,7 +21621,7 @@
       </c>
       <c r="GO33">
         <f t="shared" si="41"/>
-        <v>0.98550724637681164</v>
+        <v>0</v>
       </c>
       <c r="GP33">
         <f t="shared" si="41"/>
@@ -21650,7 +21677,7 @@
       </c>
       <c r="HC33">
         <f t="shared" si="41"/>
-        <v>0.77351916376306618</v>
+        <v>0</v>
       </c>
       <c r="HD33">
         <f t="shared" si="41"/>
@@ -21738,7 +21765,7 @@
       </c>
       <c r="HY33">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ33">
         <f t="shared" si="41"/>
@@ -21746,7 +21773,7 @@
       </c>
       <c r="IA33">
         <f t="shared" si="41"/>
-        <v>0.62745098039215685</v>
+        <v>0</v>
       </c>
       <c r="IB33">
         <f t="shared" si="41"/>
@@ -23220,7 +23247,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="42"/>
-        <v>214909</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <f t="shared" si="42"/>
@@ -23304,11 +23331,11 @@
       </c>
       <c r="AF37">
         <f t="shared" si="42"/>
-        <v>773039</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <f t="shared" si="42"/>
-        <v>1512513</v>
+        <v>0</v>
       </c>
       <c r="AH37">
         <f t="shared" si="42"/>
@@ -23344,7 +23371,7 @@
       </c>
       <c r="AP37">
         <f t="shared" si="42"/>
-        <v>1384349</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="42"/>
@@ -23364,15 +23391,15 @@
       </c>
       <c r="AU37">
         <f t="shared" si="42"/>
-        <v>648626</v>
+        <v>0</v>
       </c>
       <c r="AV37">
         <f t="shared" si="42"/>
-        <v>914714</v>
+        <v>0</v>
       </c>
       <c r="AW37">
         <f t="shared" si="42"/>
-        <v>500981</v>
+        <v>0</v>
       </c>
       <c r="AX37">
         <f t="shared" si="42"/>
@@ -23396,7 +23423,7 @@
       </c>
       <c r="BC37">
         <f t="shared" si="42"/>
-        <v>798630</v>
+        <v>0</v>
       </c>
       <c r="BD37">
         <f t="shared" si="42"/>
@@ -23404,7 +23431,7 @@
       </c>
       <c r="BE37">
         <f t="shared" si="42"/>
-        <v>1762860</v>
+        <v>0</v>
       </c>
       <c r="BF37">
         <f t="shared" si="42"/>
@@ -23436,7 +23463,7 @@
       </c>
       <c r="BM37">
         <f t="shared" si="42"/>
-        <v>1223040</v>
+        <v>0</v>
       </c>
       <c r="BN37">
         <f t="shared" si="42"/>
@@ -23496,7 +23523,7 @@
       </c>
       <c r="CB37">
         <f t="shared" si="43"/>
-        <v>5494651</v>
+        <v>0</v>
       </c>
       <c r="CC37">
         <f t="shared" si="43"/>
@@ -23512,11 +23539,11 @@
       </c>
       <c r="CF37">
         <f t="shared" si="43"/>
-        <v>1417508</v>
+        <v>0</v>
       </c>
       <c r="CG37">
         <f t="shared" si="43"/>
-        <v>4530355</v>
+        <v>0</v>
       </c>
       <c r="CH37">
         <f t="shared" si="43"/>
@@ -23528,7 +23555,7 @@
       </c>
       <c r="CJ37">
         <f t="shared" si="43"/>
-        <v>1136352</v>
+        <v>0</v>
       </c>
       <c r="CK37">
         <f t="shared" si="43"/>
@@ -23536,7 +23563,7 @@
       </c>
       <c r="CL37">
         <f t="shared" si="43"/>
-        <v>998567</v>
+        <v>0</v>
       </c>
       <c r="CM37">
         <f t="shared" si="43"/>
@@ -23624,7 +23651,7 @@
       </c>
       <c r="DH37">
         <f t="shared" si="43"/>
-        <v>264815</v>
+        <v>0</v>
       </c>
       <c r="DI37">
         <f t="shared" si="43"/>
@@ -23636,7 +23663,7 @@
       </c>
       <c r="DK37">
         <f t="shared" si="43"/>
-        <v>457735</v>
+        <v>0</v>
       </c>
       <c r="DL37">
         <f t="shared" si="43"/>
@@ -23660,7 +23687,7 @@
       </c>
       <c r="DQ37">
         <f t="shared" si="43"/>
-        <v>1529268</v>
+        <v>0</v>
       </c>
       <c r="DR37">
         <f t="shared" si="43"/>
@@ -23744,11 +23771,11 @@
       </c>
       <c r="EL37">
         <f t="shared" si="44"/>
-        <v>2874347</v>
+        <v>0</v>
       </c>
       <c r="EM37">
         <f t="shared" si="44"/>
-        <v>19951</v>
+        <v>0</v>
       </c>
       <c r="EN37">
         <f t="shared" si="44"/>
@@ -23760,7 +23787,7 @@
       </c>
       <c r="EP37">
         <f t="shared" si="44"/>
-        <v>1846504</v>
+        <v>0</v>
       </c>
       <c r="EQ37">
         <f t="shared" si="44"/>
@@ -23892,7 +23919,7 @@
       </c>
       <c r="FW37">
         <f t="shared" si="44"/>
-        <v>10791</v>
+        <v>0</v>
       </c>
       <c r="FX37">
         <f t="shared" si="44"/>
@@ -23964,7 +23991,7 @@
       </c>
       <c r="GO37">
         <f t="shared" si="45"/>
-        <v>853831</v>
+        <v>0</v>
       </c>
       <c r="GP37">
         <f t="shared" si="45"/>
@@ -24020,7 +24047,7 @@
       </c>
       <c r="HC37">
         <f t="shared" si="45"/>
-        <v>1577647</v>
+        <v>0</v>
       </c>
       <c r="HD37">
         <f t="shared" si="45"/>
@@ -24108,7 +24135,7 @@
       </c>
       <c r="HY37">
         <f t="shared" si="45"/>
-        <v>441391</v>
+        <v>0</v>
       </c>
       <c r="HZ37">
         <f t="shared" si="45"/>
@@ -24116,7 +24143,7 @@
       </c>
       <c r="IA37">
         <f t="shared" si="45"/>
-        <v>875695</v>
+        <v>0</v>
       </c>
       <c r="IB37">
         <f t="shared" si="45"/>
@@ -24124,7 +24151,7 @@
       </c>
       <c r="IC37">
         <f>SUM(B37:IB37)</f>
-        <v>70122676</v>
+        <v>36059607</v>
       </c>
     </row>
     <row r="38" spans="1:238" x14ac:dyDescent="0.3">
@@ -24166,7 +24193,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="46"/>
-        <v>477753</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <f t="shared" si="46"/>
@@ -24250,11 +24277,11 @@
       </c>
       <c r="AF38">
         <f t="shared" si="46"/>
-        <v>998962</v>
+        <v>0</v>
       </c>
       <c r="AG38">
         <f t="shared" si="46"/>
-        <v>1644718</v>
+        <v>0</v>
       </c>
       <c r="AH38">
         <f t="shared" si="46"/>
@@ -24290,7 +24317,7 @@
       </c>
       <c r="AP38">
         <f t="shared" si="46"/>
-        <v>1645107</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <f t="shared" si="46"/>
@@ -24310,15 +24337,15 @@
       </c>
       <c r="AU38">
         <f t="shared" si="46"/>
-        <v>925956</v>
+        <v>0</v>
       </c>
       <c r="AV38">
         <f t="shared" si="46"/>
-        <v>1129345</v>
+        <v>0</v>
       </c>
       <c r="AW38">
         <f t="shared" si="46"/>
-        <v>832334</v>
+        <v>0</v>
       </c>
       <c r="AX38">
         <f t="shared" si="46"/>
@@ -24342,7 +24369,7 @@
       </c>
       <c r="BC38">
         <f t="shared" si="46"/>
-        <v>1121316</v>
+        <v>0</v>
       </c>
       <c r="BD38">
         <f t="shared" si="46"/>
@@ -24350,7 +24377,7 @@
       </c>
       <c r="BE38">
         <f t="shared" si="46"/>
-        <v>3184211</v>
+        <v>0</v>
       </c>
       <c r="BF38">
         <f t="shared" si="46"/>
@@ -24382,7 +24409,7 @@
       </c>
       <c r="BM38">
         <f t="shared" si="46"/>
-        <v>1263222</v>
+        <v>0</v>
       </c>
       <c r="BN38">
         <f t="shared" ref="BN38:DY38" si="47">IF(BN$8=1,BN35+BN36,0)</f>
@@ -24442,7 +24469,7 @@
       </c>
       <c r="CB38">
         <f t="shared" si="47"/>
-        <v>6956314</v>
+        <v>0</v>
       </c>
       <c r="CC38">
         <f t="shared" si="47"/>
@@ -24458,11 +24485,11 @@
       </c>
       <c r="CF38">
         <f t="shared" si="47"/>
-        <v>1521457</v>
+        <v>0</v>
       </c>
       <c r="CG38">
         <f t="shared" si="47"/>
-        <v>4820450</v>
+        <v>0</v>
       </c>
       <c r="CH38">
         <f t="shared" si="47"/>
@@ -24474,7 +24501,7 @@
       </c>
       <c r="CJ38">
         <f t="shared" si="47"/>
-        <v>2192569</v>
+        <v>0</v>
       </c>
       <c r="CK38">
         <f t="shared" si="47"/>
@@ -24482,7 +24509,7 @@
       </c>
       <c r="CL38">
         <f t="shared" si="47"/>
-        <v>1087808</v>
+        <v>0</v>
       </c>
       <c r="CM38">
         <f t="shared" si="47"/>
@@ -24570,7 +24597,7 @@
       </c>
       <c r="DH38">
         <f t="shared" si="47"/>
-        <v>2007705</v>
+        <v>0</v>
       </c>
       <c r="DI38">
         <f t="shared" si="47"/>
@@ -24582,7 +24609,7 @@
       </c>
       <c r="DK38">
         <f t="shared" si="47"/>
-        <v>1213979</v>
+        <v>0</v>
       </c>
       <c r="DL38">
         <f t="shared" si="47"/>
@@ -24606,7 +24633,7 @@
       </c>
       <c r="DQ38">
         <f t="shared" si="47"/>
-        <v>1828571</v>
+        <v>0</v>
       </c>
       <c r="DR38">
         <f t="shared" si="47"/>
@@ -24690,11 +24717,11 @@
       </c>
       <c r="EL38">
         <f t="shared" si="48"/>
-        <v>3262537</v>
+        <v>0</v>
       </c>
       <c r="EM38">
         <f t="shared" si="48"/>
-        <v>916568</v>
+        <v>0</v>
       </c>
       <c r="EN38">
         <f t="shared" si="48"/>
@@ -24706,7 +24733,7 @@
       </c>
       <c r="EP38">
         <f t="shared" si="48"/>
-        <v>1895462</v>
+        <v>0</v>
       </c>
       <c r="EQ38">
         <f t="shared" si="48"/>
@@ -24838,7 +24865,7 @@
       </c>
       <c r="FW38">
         <f t="shared" si="48"/>
-        <v>2616134</v>
+        <v>0</v>
       </c>
       <c r="FX38">
         <f t="shared" si="48"/>
@@ -24910,7 +24937,7 @@
       </c>
       <c r="GO38">
         <f t="shared" si="49"/>
-        <v>946050</v>
+        <v>0</v>
       </c>
       <c r="GP38">
         <f t="shared" si="49"/>
@@ -24966,7 +24993,7 @@
       </c>
       <c r="HC38">
         <f t="shared" si="49"/>
-        <v>2298377</v>
+        <v>0</v>
       </c>
       <c r="HD38">
         <f t="shared" si="49"/>
@@ -25054,7 +25081,7 @@
       </c>
       <c r="HY38">
         <f t="shared" si="49"/>
-        <v>479001</v>
+        <v>0</v>
       </c>
       <c r="HZ38">
         <f t="shared" si="49"/>
@@ -25062,7 +25089,7 @@
       </c>
       <c r="IA38">
         <f t="shared" si="49"/>
-        <v>1260887</v>
+        <v>0</v>
       </c>
       <c r="IB38">
         <f t="shared" si="49"/>
@@ -25070,11 +25097,11 @@
       </c>
       <c r="IC38">
         <f>SUM(B38:IB38)</f>
-        <v>95580965</v>
+        <v>47054172</v>
       </c>
       <c r="ID38">
         <f>IC37/IC38</f>
-        <v>0.73364687205240076</v>
+        <v>0.7663423978643169</v>
       </c>
     </row>
     <row r="39" spans="1:238" x14ac:dyDescent="0.3">
@@ -25116,7 +25143,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="50"/>
-        <v>0.44983286342524276</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <f t="shared" si="50"/>
@@ -25200,11 +25227,11 @@
       </c>
       <c r="AF39">
         <f t="shared" si="50"/>
-        <v>0.7738422482536873</v>
+        <v>0</v>
       </c>
       <c r="AG39">
         <f t="shared" si="50"/>
-        <v>0.9196184391488389</v>
+        <v>0</v>
       </c>
       <c r="AH39">
         <f t="shared" si="50"/>
@@ -25240,7 +25267,7 @@
       </c>
       <c r="AP39">
         <f t="shared" si="50"/>
-        <v>0.8414948085443682</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
         <f t="shared" si="50"/>
@@ -25260,15 +25287,15 @@
       </c>
       <c r="AU39">
         <f t="shared" si="50"/>
-        <v>0.70049332797670727</v>
+        <v>0</v>
       </c>
       <c r="AV39">
         <f t="shared" si="50"/>
-        <v>0.80995090074335119</v>
+        <v>0</v>
       </c>
       <c r="AW39">
         <f t="shared" si="50"/>
-        <v>0.60189899727753526</v>
+        <v>0</v>
       </c>
       <c r="AX39">
         <f t="shared" si="50"/>
@@ -25292,7 +25319,7 @@
       </c>
       <c r="BC39">
         <f t="shared" si="50"/>
-        <v>0.71222563487901713</v>
+        <v>0</v>
       </c>
       <c r="BD39">
         <f t="shared" si="50"/>
@@ -25300,7 +25327,7 @@
       </c>
       <c r="BE39">
         <f t="shared" si="50"/>
-        <v>0.55362537218796115</v>
+        <v>0</v>
       </c>
       <c r="BF39">
         <f t="shared" si="50"/>
@@ -25332,7 +25359,7 @@
       </c>
       <c r="BM39">
         <f t="shared" si="50"/>
-        <v>0.9681908643136361</v>
+        <v>0</v>
       </c>
       <c r="BN39">
         <f t="shared" si="50"/>
@@ -25392,7 +25419,7 @@
       </c>
       <c r="CB39">
         <f t="shared" si="51"/>
-        <v>0.78987966903161644</v>
+        <v>0</v>
       </c>
       <c r="CC39">
         <f t="shared" si="51"/>
@@ -25408,11 +25435,11 @@
       </c>
       <c r="CF39">
         <f t="shared" si="51"/>
-        <v>0.93167799024224807</v>
+        <v>0</v>
       </c>
       <c r="CG39">
         <f t="shared" si="51"/>
-        <v>0.93981993382360574</v>
+        <v>0</v>
       </c>
       <c r="CH39">
         <f t="shared" si="51"/>
@@ -25424,7 +25451,7 @@
       </c>
       <c r="CJ39">
         <f t="shared" si="51"/>
-        <v>0.51827422534935041</v>
+        <v>0</v>
       </c>
       <c r="CK39">
         <f t="shared" si="51"/>
@@ -25432,7 +25459,7 @@
       </c>
       <c r="CL39">
         <f t="shared" si="51"/>
-        <v>0.91796254486085782</v>
+        <v>0</v>
       </c>
       <c r="CM39">
         <f t="shared" si="51"/>
@@ -25520,7 +25547,7 @@
       </c>
       <c r="DH39">
         <f t="shared" si="51"/>
-        <v>0.13189935772436687</v>
+        <v>0</v>
       </c>
       <c r="DI39">
         <f t="shared" si="51"/>
@@ -25532,7 +25559,7 @@
       </c>
       <c r="DK39">
         <f t="shared" si="51"/>
-        <v>0.37705347456586974</v>
+        <v>0</v>
       </c>
       <c r="DL39">
         <f t="shared" si="51"/>
@@ -25556,7 +25583,7 @@
       </c>
       <c r="DQ39">
         <f t="shared" si="51"/>
-        <v>0.83631863351217972</v>
+        <v>0</v>
       </c>
       <c r="DR39">
         <f t="shared" si="51"/>
@@ -25640,11 +25667,11 @@
       </c>
       <c r="EL39">
         <f t="shared" si="52"/>
-        <v>0.88101590878509572</v>
+        <v>0</v>
       </c>
       <c r="EM39">
         <f t="shared" si="52"/>
-        <v>2.1767070201010728E-2</v>
+        <v>0</v>
       </c>
       <c r="EN39">
         <f t="shared" si="52"/>
@@ -25656,7 +25683,7 @@
       </c>
       <c r="EP39">
         <f t="shared" si="52"/>
-        <v>0.9741709409104482</v>
+        <v>0</v>
       </c>
       <c r="EQ39">
         <f t="shared" si="52"/>
@@ -25788,7 +25815,7 @@
       </c>
       <c r="FW39">
         <f t="shared" si="52"/>
-        <v>4.1247887149511451E-3</v>
+        <v>0</v>
       </c>
       <c r="FX39">
         <f t="shared" si="52"/>
@@ -25860,7 +25887,7 @@
       </c>
       <c r="GO39">
         <f t="shared" si="53"/>
-        <v>0.90252206542994551</v>
+        <v>0</v>
       </c>
       <c r="GP39">
         <f t="shared" si="53"/>
@@ -25916,7 +25943,7 @@
       </c>
       <c r="HC39">
         <f t="shared" si="53"/>
-        <v>0.68641785050929416</v>
+        <v>0</v>
       </c>
       <c r="HD39">
         <f t="shared" si="53"/>
@@ -26004,7 +26031,7 @@
       </c>
       <c r="HY39">
         <f t="shared" si="53"/>
-        <v>0.92148241861708013</v>
+        <v>0</v>
       </c>
       <c r="HZ39">
         <f t="shared" si="53"/>
@@ -26012,7 +26039,7 @@
       </c>
       <c r="IA39">
         <f t="shared" si="53"/>
-        <v>0.69450712078084709</v>
+        <v>0</v>
       </c>
       <c r="IB39">
         <f t="shared" si="53"/>
@@ -26026,17 +26053,2627 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F48760-1F4C-43FA-B719-B90D63456383}">
-  <dimension ref="B1:IB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF87E9A-ACCA-484D-918C-59473C0EBA73}">
+  <dimension ref="B1:IB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView topLeftCell="HH1" workbookViewId="0">
+      <selection activeCell="HH6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:236" x14ac:dyDescent="0.3">
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:236" x14ac:dyDescent="0.3">
+      <c r="B2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BZ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CP2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CT2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="CU2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CV2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DA2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DD2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DS2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT2">
+        <v>1</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>1</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EC2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ED2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EJ2">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EL2">
+        <v>1</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ET2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EU2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EZ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FB2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FF2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FI2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FJ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FU2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FV2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GE2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>0</v>
+      </c>
+      <c r="GI2">
+        <v>1</v>
+      </c>
+      <c r="GJ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GK2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GL2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GM2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GN2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO2">
+        <v>1</v>
+      </c>
+      <c r="GP2">
+        <v>0</v>
+      </c>
+      <c r="GQ2">
+        <v>0</v>
+      </c>
+      <c r="GR2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GS2">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GU2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GV2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GW2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GX2">
+        <v>0</v>
+      </c>
+      <c r="GY2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GZ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HB2">
+        <v>0</v>
+      </c>
+      <c r="HC2">
+        <v>1</v>
+      </c>
+      <c r="HD2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HE2">
+        <v>0</v>
+      </c>
+      <c r="HF2">
+        <v>0</v>
+      </c>
+      <c r="HG2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HH2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HI2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HJ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HK2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HL2">
+        <v>0</v>
+      </c>
+      <c r="HM2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HN2">
+        <v>0</v>
+      </c>
+      <c r="HO2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HP2">
+        <v>0</v>
+      </c>
+      <c r="HQ2">
+        <v>0</v>
+      </c>
+      <c r="HR2">
+        <v>0</v>
+      </c>
+      <c r="HS2">
+        <v>0</v>
+      </c>
+      <c r="HT2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HU2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HV2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HW2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HX2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HY2">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="IA2">
+        <v>1</v>
+      </c>
+      <c r="IB2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:236" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0.84795321637426901</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="AV3">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="AW3">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="BA3">
+        <v>0.4</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0.67441860465116277</v>
+      </c>
+      <c r="BD3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BE3">
+        <v>0.51754385964912286</v>
+      </c>
+      <c r="BF3">
+        <v>0.25</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0.99487179487179489</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>0.9</v>
+      </c>
+      <c r="BK3">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.9375</v>
+      </c>
+      <c r="BP3">
+        <v>0.99257425742574257</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="BU3">
+        <v>0.99300699300699302</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="CB3">
+        <v>0.98863636363636365</v>
+      </c>
+      <c r="CC3">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>0.949438202247191</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>0.92727272727272725</v>
+      </c>
+      <c r="CM3">
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>1</v>
+      </c>
+      <c r="CP3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="CS3">
+        <v>0.85526315789473684</v>
+      </c>
+      <c r="CT3">
+        <v>0.77924944812362029</v>
+      </c>
+      <c r="CU3">
+        <v>1</v>
+      </c>
+      <c r="CV3">
+        <v>1</v>
+      </c>
+      <c r="CW3">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>0.9923371647509579</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0.92</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0.75</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0.98136645962732916</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0.99152542372881358</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>1</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>1</v>
+      </c>
+      <c r="EC3">
+        <v>1</v>
+      </c>
+      <c r="ED3">
+        <v>1</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>1</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>1</v>
+      </c>
+      <c r="EJ3">
+        <v>1</v>
+      </c>
+      <c r="EK3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EL3">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>1</v>
+      </c>
+      <c r="EQ3">
+        <v>1</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0.5</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>1</v>
+      </c>
+      <c r="EY3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="EZ3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FB3">
+        <v>1</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>1</v>
+      </c>
+      <c r="FF3">
+        <v>1</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>1</v>
+      </c>
+      <c r="FI3">
+        <v>1</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="FV3">
+        <v>1</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>1</v>
+      </c>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0.8</v>
+      </c>
+      <c r="GE3">
+        <v>1</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+      <c r="GI3">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="GJ3">
+        <v>1</v>
+      </c>
+      <c r="GK3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="GL3">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="GM3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="GN3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GR3">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="GS3">
+        <v>1</v>
+      </c>
+      <c r="GT3">
+        <v>1</v>
+      </c>
+      <c r="GU3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>1</v>
+      </c>
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
+        <v>0</v>
+      </c>
+      <c r="GY3">
+        <v>0.5</v>
+      </c>
+      <c r="GZ3">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="HA3">
+        <v>0</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>0.92156862745098034</v>
+      </c>
+      <c r="HD3">
+        <v>0.75</v>
+      </c>
+      <c r="HE3">
+        <v>0</v>
+      </c>
+      <c r="HF3">
+        <v>0</v>
+      </c>
+      <c r="HG3">
+        <v>0</v>
+      </c>
+      <c r="HH3">
+        <v>1</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>1</v>
+      </c>
+      <c r="HK3">
+        <v>0.5</v>
+      </c>
+      <c r="HL3">
+        <v>0</v>
+      </c>
+      <c r="HM3">
+        <v>1</v>
+      </c>
+      <c r="HN3">
+        <v>0</v>
+      </c>
+      <c r="HO3">
+        <v>0</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0</v>
+      </c>
+      <c r="HR3">
+        <v>0</v>
+      </c>
+      <c r="HS3">
+        <v>0</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>1</v>
+      </c>
+      <c r="HW3">
+        <v>1</v>
+      </c>
+      <c r="HX3">
+        <v>0.3</v>
+      </c>
+      <c r="HY3">
+        <v>1</v>
+      </c>
+      <c r="HZ3">
+        <v>1</v>
+      </c>
+      <c r="IA3">
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="IB3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="2:236" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="O4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0.96511627906976749</v>
+      </c>
+      <c r="AH4">
+        <v>0.2</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0.75744680851063828</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0.96938775510204078</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0.50847457627118642</v>
+      </c>
+      <c r="AV4">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="BA4">
+        <v>0.8</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0.68</v>
+      </c>
+      <c r="BD4">
+        <v>0.9</v>
+      </c>
+      <c r="BE4">
+        <v>0.50270270270270268</v>
+      </c>
+      <c r="BF4">
+        <v>0.75</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0.99596774193548387</v>
+      </c>
+      <c r="BI4">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="BJ4">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="BK4">
+        <v>0.92125984251968507</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0.9</v>
+      </c>
+      <c r="BP4">
+        <v>0.99038461538461542</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0.92405063291139244</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="BU4">
+        <v>0.96370967741935487</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="CA4">
+        <v>0.87333333333333329</v>
+      </c>
+      <c r="CB4">
+        <v>0.91443850267379678</v>
+      </c>
+      <c r="CC4">
+        <v>0.35365853658536583</v>
+      </c>
+      <c r="CD4">
+        <v>0.2</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0.91489361702127658</v>
+      </c>
+      <c r="CG4">
+        <v>0.86186186186186187</v>
+      </c>
+      <c r="CH4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0.7</v>
+      </c>
+      <c r="CK4">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="CL4">
+        <v>0.78676470588235292</v>
+      </c>
+      <c r="CM4">
+        <v>0.72932330827067671</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0.5</v>
+      </c>
+      <c r="CP4">
+        <v>0.59375</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="CS4">
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="CT4">
+        <v>0.83150984682713347</v>
+      </c>
+      <c r="CU4">
+        <v>0.9</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>0.7289719626168224</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>0.2</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="DD4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="DE4">
+        <v>0.99419729206963248</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0.91379310344827591</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0.25</v>
+      </c>
+      <c r="DQ4">
+        <v>0.92063492063492058</v>
+      </c>
+      <c r="DR4">
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0.952755905511811</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0.92073170731707321</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>1</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0.96875</v>
+      </c>
+      <c r="EC4">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="ED4">
+        <v>1</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>1</v>
+      </c>
+      <c r="EH4">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="EI4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="EJ4">
+        <v>0.98954703832752611</v>
+      </c>
+      <c r="EK4">
+        <v>0.4</v>
+      </c>
+      <c r="EL4">
+        <v>0.97637795275590555</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>0</v>
+      </c>
+      <c r="EP4">
+        <v>1</v>
+      </c>
+      <c r="EQ4">
+        <v>1</v>
+      </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
+      <c r="ES4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="ET4">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="EU4">
+        <v>0.4</v>
+      </c>
+      <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <v>0.99541284403669728</v>
+      </c>
+      <c r="EY4">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="EZ4">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="FA4">
+        <v>0</v>
+      </c>
+      <c r="FB4">
+        <v>1</v>
+      </c>
+      <c r="FC4">
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>1</v>
+      </c>
+      <c r="FF4">
+        <v>1</v>
+      </c>
+      <c r="FG4">
+        <v>0</v>
+      </c>
+      <c r="FH4">
+        <v>1</v>
+      </c>
+      <c r="FI4">
+        <v>1</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4">
+        <v>0</v>
+      </c>
+      <c r="FP4">
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0</v>
+      </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="FV4">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="FW4">
+        <v>4.0816326530612249E-3</v>
+      </c>
+      <c r="FX4">
+        <v>1</v>
+      </c>
+      <c r="FY4">
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
+      <c r="GB4">
+        <v>0</v>
+      </c>
+      <c r="GC4">
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="GE4">
+        <v>1</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0</v>
+      </c>
+      <c r="GI4">
+        <v>0.90588235294117647</v>
+      </c>
+      <c r="GJ4">
+        <v>0.9</v>
+      </c>
+      <c r="GK4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GL4">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="GM4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="GN4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="GO4">
+        <v>0.90196078431372551</v>
+      </c>
+      <c r="GP4">
+        <v>0</v>
+      </c>
+      <c r="GQ4">
+        <v>0</v>
+      </c>
+      <c r="GR4">
+        <v>0.1875</v>
+      </c>
+      <c r="GS4">
+        <v>0.97935103244837762</v>
+      </c>
+      <c r="GT4">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="GU4">
+        <v>0</v>
+      </c>
+      <c r="GV4">
+        <v>1</v>
+      </c>
+      <c r="GW4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="GX4">
+        <v>0</v>
+      </c>
+      <c r="GY4">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="GZ4">
+        <v>0.73972602739726023</v>
+      </c>
+      <c r="HA4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="HB4">
+        <v>0</v>
+      </c>
+      <c r="HC4">
+        <v>0.8</v>
+      </c>
+      <c r="HD4">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="HE4">
+        <v>0</v>
+      </c>
+      <c r="HF4">
+        <v>0</v>
+      </c>
+      <c r="HG4">
+        <v>0</v>
+      </c>
+      <c r="HH4">
+        <v>0.5</v>
+      </c>
+      <c r="HI4">
+        <v>0</v>
+      </c>
+      <c r="HJ4">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="HK4">
+        <v>0.5</v>
+      </c>
+      <c r="HL4">
+        <v>0</v>
+      </c>
+      <c r="HM4">
+        <v>1</v>
+      </c>
+      <c r="HN4">
+        <v>0</v>
+      </c>
+      <c r="HO4">
+        <v>0.25</v>
+      </c>
+      <c r="HP4">
+        <v>0</v>
+      </c>
+      <c r="HQ4">
+        <v>0</v>
+      </c>
+      <c r="HR4">
+        <v>0</v>
+      </c>
+      <c r="HS4">
+        <v>0</v>
+      </c>
+      <c r="HT4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="HU4">
+        <v>0</v>
+      </c>
+      <c r="HV4">
+        <v>1</v>
+      </c>
+      <c r="HW4">
+        <v>1</v>
+      </c>
+      <c r="HX4">
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="HY4">
+        <v>1</v>
+      </c>
+      <c r="HZ4">
+        <v>1</v>
+      </c>
+      <c r="IA4">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="IB4">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:236" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>2</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>2</v>
+      </c>
+      <c r="BU5">
+        <v>2</v>
+      </c>
+      <c r="CA5">
+        <v>2</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>2</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CJ5">
+        <v>2</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>2</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>2</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>1</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
+      <c r="DT5">
+        <v>2</v>
+      </c>
+      <c r="DV5">
+        <v>2</v>
+      </c>
+      <c r="EB5">
+        <v>1</v>
+      </c>
+      <c r="EC5">
+        <v>1</v>
+      </c>
+      <c r="EI5">
+        <v>1</v>
+      </c>
+      <c r="EJ5">
+        <v>1</v>
+      </c>
+      <c r="EL5">
+        <v>1</v>
+      </c>
+      <c r="EU5">
+        <v>1</v>
+      </c>
+      <c r="EX5">
+        <v>1</v>
+      </c>
+      <c r="EZ5">
+        <v>1</v>
+      </c>
+      <c r="FV5">
+        <v>1</v>
+      </c>
+      <c r="GI5">
+        <v>2</v>
+      </c>
+      <c r="GJ5">
+        <v>1</v>
+      </c>
+      <c r="GL5">
+        <v>1</v>
+      </c>
+      <c r="GM5">
+        <v>1</v>
+      </c>
+      <c r="GO5">
+        <v>1</v>
+      </c>
+      <c r="GS5">
+        <v>1</v>
+      </c>
+      <c r="GT5">
+        <v>1</v>
+      </c>
+      <c r="GZ5">
+        <v>1</v>
+      </c>
+      <c r="HC5">
+        <v>2</v>
+      </c>
+      <c r="HH5">
+        <v>1</v>
+      </c>
+      <c r="HJ5">
+        <v>1</v>
+      </c>
+      <c r="IA5">
+        <v>1</v>
+      </c>
+      <c r="IB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:236" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CR6">
+        <v>1</v>
+      </c>
+      <c r="CT6">
+        <v>1</v>
+      </c>
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
+        <v>1</v>
+      </c>
+      <c r="DC6">
+        <v>1</v>
+      </c>
+      <c r="DE6">
+        <v>1</v>
+      </c>
+      <c r="DH6">
+        <v>1</v>
+      </c>
+      <c r="DK6">
+        <v>1</v>
+      </c>
+      <c r="DQ6">
+        <v>1</v>
+      </c>
+      <c r="DR6">
+        <v>1</v>
+      </c>
+      <c r="EH6">
+        <v>1</v>
+      </c>
+      <c r="EL6">
+        <v>1</v>
+      </c>
+      <c r="ES6">
+        <v>1</v>
+      </c>
+      <c r="ET6">
+        <v>1</v>
+      </c>
+      <c r="EY6">
+        <v>1</v>
+      </c>
+      <c r="FU6">
+        <v>1</v>
+      </c>
+      <c r="FV6">
+        <v>1</v>
+      </c>
+      <c r="FW6">
+        <v>1</v>
+      </c>
+      <c r="GD6">
+        <v>1</v>
+      </c>
+      <c r="GJ6">
+        <v>1</v>
+      </c>
+      <c r="GO6">
+        <v>1</v>
+      </c>
+      <c r="GR6">
+        <v>1</v>
+      </c>
+      <c r="GS6">
+        <v>1</v>
+      </c>
+      <c r="GW6">
+        <v>1</v>
+      </c>
+      <c r="GY6">
+        <v>1</v>
+      </c>
+      <c r="HA6">
+        <v>1</v>
+      </c>
+      <c r="HD6">
+        <v>1</v>
+      </c>
+      <c r="HO6">
+        <v>1</v>
+      </c>
+      <c r="HT6">
+        <v>1</v>
+      </c>
+      <c r="HX6">
+        <v>1</v>
+      </c>
+      <c r="IA6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F48760-1F4C-43FA-B719-B90D63456383}">
+  <dimension ref="B1:IB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:236" x14ac:dyDescent="0.3">
+      <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
